--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD4C09-094E-4F89-B632-A6F47FFB4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC86CDD-2A0F-499E-924A-E0B072ED5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
     <sheet name="insert" sheetId="1" r:id="rId2"/>
+    <sheet name="upload" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -86,6 +87,9 @@
   </si>
   <si>
     <t>database row inserted</t>
+  </si>
+  <si>
+    <t>config\filesystems.php</t>
   </si>
 </sst>
 </file>
@@ -975,6 +979,407 @@
         <a:xfrm>
           <a:off x="609600" y="35623501"/>
           <a:ext cx="11315700" cy="3785706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437028</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76D11C1-728C-45C0-A1A8-7319FCABC2CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8971428" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198933</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D73E57-B3C0-49C3-8AB9-8C374BD38690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3619500"/>
+          <a:ext cx="8733333" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>313524</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7312968C-9E02-4D05-83A4-1DC97AFFFACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="6409524" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589562</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>113595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06426EE4-72F8-4991-AE9F-B044251718A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12763500"/>
+          <a:ext cx="7904762" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103543</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>189738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD53AE-BF51-417D-84E4-714D81B4FD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="9857143" cy="6095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>164913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195237E6-F1A5-4449-8248-E4036E38FCEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="25146000"/>
+          <a:ext cx="11506200" cy="5498913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16020</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5891DC1-711F-4026-9B67-8485558D5BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31051500"/>
+          <a:ext cx="11598420" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>159224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93EA7A5-1FA9-47F5-AED8-CFB753C72A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36957000"/>
+          <a:ext cx="11315700" cy="5683724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180724</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF720D51-31F2-414C-A270-8750C28D5FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42862500"/>
+          <a:ext cx="2009524" cy="2009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="L213" sqref="L213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,4 +1783,50 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75AA97-A425-4436-A8E8-1F70670D1E9A}">
+  <dimension ref="A2:B163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC86CDD-2A0F-499E-924A-E0B072ED5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2638E685-EF49-4F02-9B82-803AA1398C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
     <sheet name="insert" sheetId="1" r:id="rId2"/>
     <sheet name="upload" sheetId="3" r:id="rId3"/>
+    <sheet name="delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -1380,6 +1381,319 @@
         <a:xfrm>
           <a:off x="609600" y="42862500"/>
           <a:ext cx="2009524" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>199162</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABEACFB-8EA3-47A4-A32D-0F5CBD577080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6904762" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541638</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02722E61-EA91-4EB7-A6F9-BE30922D81F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="10295238" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541714</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10DE2B8-50C7-4243-8885-DCCBCAC57AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5715000"/>
+          <a:ext cx="9685714" cy="4704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>178035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233F69F-ED58-4000-A8D5-EC87C4B12AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10858501"/>
+          <a:ext cx="11363325" cy="5893034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E51D400-FE02-49FD-8AD0-7AC9C2DF69FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17145000"/>
+          <a:ext cx="10820400" cy="5467581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>29635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC8D958-CFA6-49D5-98B0-D9F7A932F9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22860001"/>
+          <a:ext cx="11820525" cy="4030134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>75962</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>190286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883CC55E-BDB4-4109-9B38-E9081F07E61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27051000"/>
+          <a:ext cx="1904762" cy="1714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1789,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75AA97-A425-4436-A8E8-1F70670D1E9A}">
   <dimension ref="A2:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
@@ -1829,4 +2143,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A922CA-0393-4BE2-9187-443D67DE2460}">
+  <dimension ref="A2:B90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2638E685-EF49-4F02-9B82-803AA1398C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F7E68-2C71-4B86-A1E1-C7E24AEEB62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
     <sheet name="insert" sheetId="1" r:id="rId2"/>
     <sheet name="upload" sheetId="3" r:id="rId3"/>
     <sheet name="delete" sheetId="4" r:id="rId4"/>
+    <sheet name="php intelephese" sheetId="6" r:id="rId5"/>
+    <sheet name="validate thumb" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -92,6 +94,15 @@
   <si>
     <t>config\filesystems.php</t>
   </si>
+  <si>
+    <t>views\admin\pages\slider\form.blade.php</t>
+  </si>
+  <si>
+    <t>Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>Nếu mà là Edit thì không cần phải validate require trường thumb</t>
+  </si>
 </sst>
 </file>
 
@@ -1694,6 +1705,143 @@
         <a:xfrm>
           <a:off x="609600" y="27051000"/>
           <a:ext cx="1904762" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179886</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4955E93-B03D-4EC2-9DAB-8E87C33BA17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8714286" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871A70CB-69C5-49CF-A333-541E0CBE08AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="4191000"/>
+          <a:ext cx="10972800" cy="4155694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389333</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55A50DB-4143-4A28-8AD0-659916E021B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763000"/>
+          <a:ext cx="9533333" cy="4733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2149,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A922CA-0393-4BE2-9187-443D67DE2460}">
   <dimension ref="A2:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
@@ -2174,4 +2322,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B30685-10D0-4799-B229-76BA1B7F38B8}">
+  <dimension ref="A2:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F51F3-F129-492B-AD25-92DC01FEA85C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F7E68-2C71-4B86-A1E1-C7E24AEEB62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02362E29-2D10-4132-B5E4-8EE33C207A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
     <sheet name="insert" sheetId="1" r:id="rId2"/>
     <sheet name="upload" sheetId="3" r:id="rId3"/>
     <sheet name="delete" sheetId="4" r:id="rId4"/>
-    <sheet name="php intelephese" sheetId="6" r:id="rId5"/>
-    <sheet name="validate thumb" sheetId="5" r:id="rId6"/>
+    <sheet name="validate thumb" sheetId="6" r:id="rId5"/>
+    <sheet name="validate name" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -103,6 +103,12 @@
   <si>
     <t>Nếu mà là Edit thì không cần phải validate require trường thumb</t>
   </si>
+  <si>
+    <t>Check browser add</t>
+  </si>
+  <si>
+    <t>Check browser edit</t>
+  </si>
 </sst>
 </file>
 
@@ -1842,6 +1848,319 @@
         <a:xfrm>
           <a:off x="609600" y="8763000"/>
           <a:ext cx="9533333" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>75048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A7A603-A170-4BB5-AC16-AC17B7350DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9219048" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17905</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D1C6DE-FAF3-4EF1-8FD0-CD40C68AC4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2286000"/>
+          <a:ext cx="9161905" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170362</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>46857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C08BB6-CA19-4D82-BC7F-72AD55FF5E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="8704762" cy="6142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>72853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3476B3EC-4F0D-42F0-B6C4-9FE8398F76E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="10858500"/>
+          <a:ext cx="11068050" cy="5406853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>185461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43F027A-7ADE-4A1D-BC9B-B5E1B5E0ABF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="16383000"/>
+          <a:ext cx="11410950" cy="5900461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503659</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA0A381-8E22-49FF-933A-0C7D9E06756A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22860000"/>
+          <a:ext cx="11476459" cy="5886450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>148307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152A7073-EADC-458A-9B29-1DA9DB770A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29146500"/>
+          <a:ext cx="11363325" cy="5863307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2328,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B30685-10D0-4799-B229-76BA1B7F38B8}">
   <dimension ref="A2:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,14 +2681,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F51F3-F129-492B-AD25-92DC01FEA85C}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02362E29-2D10-4132-B5E4-8EE33C207A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CD270-1884-43CA-9A6E-6B46E7AD4883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="delete" sheetId="4" r:id="rId4"/>
     <sheet name="validate thumb" sheetId="6" r:id="rId5"/>
     <sheet name="validate name" sheetId="5" r:id="rId6"/>
+    <sheet name="edit" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -109,6 +110,15 @@
   <si>
     <t>Check browser edit</t>
   </si>
+  <si>
+    <t>Check browser edit name</t>
+  </si>
+  <si>
+    <t>Check browser edit thumb</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
 </sst>
 </file>
 
@@ -2161,6 +2171,423 @@
         <a:xfrm>
           <a:off x="609600" y="29146500"/>
           <a:ext cx="11363325" cy="5863307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532190</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8008F646-A547-4EE3-94AA-EFBF853D34DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9676190" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>119943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE18F69-0544-4909-9B60-B9CE4CA60FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5715000"/>
+          <a:ext cx="11468100" cy="5834943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476549</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D46EDE1-B274-47F3-93DF-F3B26F87819B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="11811000"/>
+          <a:ext cx="11449348" cy="5686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>531962</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>113476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C56F9C8-14BF-4E7F-BD2B-B85998BC52DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17907000"/>
+          <a:ext cx="11504762" cy="6590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>432719</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C52B31-0862-40BF-BBA7-BF77CC794F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24955500"/>
+          <a:ext cx="11405519" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274895</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>28429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41B84F0-2801-44C0-8F12-A19752A494B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31242000"/>
+          <a:ext cx="10638095" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341562</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>28405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66664ABF-8C3B-4B21-8A66-F32118E17F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32956500"/>
+          <a:ext cx="10704762" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Down 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF99568-862D-468A-B326-9770D82A041E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="32613600"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171200</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>180738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F991D7-8A8F-4729-887D-C76AE3EAC672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34671000"/>
+          <a:ext cx="2000000" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2513,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B187"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
+    <sheetView topLeftCell="A194" workbookViewId="0">
       <selection activeCell="L213" sqref="L213"/>
     </sheetView>
   </sheetViews>
@@ -2683,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F51F3-F129-492B-AD25-92DC01FEA85C}">
   <dimension ref="A2:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
@@ -2723,4 +3150,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9312EB2C-0B9C-4797-8CFA-A6CA41CF9DB5}">
+  <dimension ref="A2:B164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
+++ b/me-docs/17.Xay-dung-chuc-nang-Add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CD270-1884-43CA-9A6E-6B46E7AD4883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1A8C1-805A-4F8F-BF6F-ED556541AC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration seed slider table" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="validate thumb" sheetId="6" r:id="rId5"/>
     <sheet name="validate name" sheetId="5" r:id="rId6"/>
     <sheet name="edit" sheetId="7" r:id="rId7"/>
+    <sheet name="AdminModel" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>resources\lang\en\notify.php</t>
   </si>
@@ -119,6 +120,12 @@
   <si>
     <t>Database</t>
   </si>
+  <si>
+    <t>app\Models\AdminModel.php</t>
+  </si>
+  <si>
+    <t>Check browser delete</t>
+  </si>
 </sst>
 </file>
 
@@ -2588,6 +2595,407 @@
         <a:xfrm>
           <a:off x="609600" y="34671000"/>
           <a:ext cx="2000000" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370590</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE5A42C-6C49-4524-9912-A007F86E1833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7076190" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141638</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8713AE9D-1880-4AD2-9AFA-6BDF7C43F2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4953000"/>
+          <a:ext cx="9895238" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189409</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC26702-6A5D-4EFB-AE61-AE6302D335C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8572500"/>
+          <a:ext cx="8723809" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>461597</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E590DEE-EB5B-4635-8301-BAE1CC7EA2CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12382500"/>
+          <a:ext cx="11434397" cy="5505450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353199</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AA5479-424F-40E4-AD1F-36C4348D7BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288000"/>
+          <a:ext cx="11325999" cy="5514975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17991</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D14664-81E0-4A0D-A399-CC2B945C829C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24193500"/>
+          <a:ext cx="10990791" cy="5610225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>129289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5AD7DF-F268-4027-AE7B-7E933D0310BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30099001"/>
+          <a:ext cx="11534775" cy="5653788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>126199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027D6ED8-4318-4CB7-8F29-803707E3D230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="36195000"/>
+          <a:ext cx="11715750" cy="6031699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>90680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED03DF4-ECEE-404F-A217-FBBB70F1A1A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42672000"/>
+          <a:ext cx="11191875" cy="5805680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3156,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9312EB2C-0B9C-4797-8CFA-A6CA41CF9DB5}">
   <dimension ref="A2:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
@@ -3196,4 +3604,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16C2A5-0E82-42FE-AF44-7E572A505F92}">
+  <dimension ref="A2:B224"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>